--- a/natmiOut/OldD2/LR-pairs_lrc2p/Pf4-Cxcr3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Pf4-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +525,619 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>220.244963555666</v>
+        <v>0.197427</v>
       </c>
       <c r="H2">
-        <v>220.244963555666</v>
+        <v>0.394854</v>
       </c>
       <c r="I2">
-        <v>0.6142483077693223</v>
+        <v>0.000452391028090995</v>
       </c>
       <c r="J2">
-        <v>0.6142483077693223</v>
+        <v>0.0003016395050625994</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.39324635966321</v>
+        <v>0.7166990000000001</v>
       </c>
       <c r="N2">
-        <v>2.39324635966321</v>
+        <v>2.150097</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2276207788704612</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.2276207788704611</v>
       </c>
       <c r="Q2">
-        <v>527.100457263754</v>
+        <v>0.141495733473</v>
       </c>
       <c r="R2">
-        <v>527.100457263754</v>
+        <v>0.848974400838</v>
       </c>
       <c r="S2">
-        <v>0.6142483077693223</v>
+        <v>0.000102973598168081</v>
       </c>
       <c r="T2">
-        <v>0.6142483077693223</v>
+        <v>6.865941908044928E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>136.912534906601</v>
+        <v>0.197427</v>
       </c>
       <c r="H3">
-        <v>136.912534906601</v>
+        <v>0.394854</v>
       </c>
       <c r="I3">
-        <v>0.381839800198348</v>
+        <v>0.000452391028090995</v>
       </c>
       <c r="J3">
-        <v>0.381839800198348</v>
+        <v>0.0003016395050625994</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.39324635966321</v>
+        <v>2.431954666666666</v>
       </c>
       <c r="N3">
-        <v>2.39324635966321</v>
+        <v>7.295864</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.7723792211295388</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.7723792211295388</v>
       </c>
       <c r="Q3">
-        <v>327.665425757485</v>
+        <v>0.480133513976</v>
       </c>
       <c r="R3">
-        <v>327.665425757485</v>
+        <v>2.880801083856</v>
       </c>
       <c r="S3">
-        <v>0.381839800198348</v>
+        <v>0.000349417429922914</v>
       </c>
       <c r="T3">
-        <v>0.381839800198348</v>
+        <v>0.0002329800859821501</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>1.250719333333333</v>
+      </c>
+      <c r="H4">
+        <v>3.752158</v>
+      </c>
+      <c r="I4">
+        <v>0.002865941360907832</v>
+      </c>
+      <c r="J4">
+        <v>0.002866373601474654</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.7166990000000001</v>
+      </c>
+      <c r="N4">
+        <v>2.150097</v>
+      </c>
+      <c r="O4">
+        <v>0.2276207788704612</v>
+      </c>
+      <c r="P4">
+        <v>0.2276207788704611</v>
+      </c>
+      <c r="Q4">
+        <v>0.8963892954806667</v>
+      </c>
+      <c r="R4">
+        <v>8.067503659326</v>
+      </c>
+      <c r="S4">
+        <v>0.0006523478047669101</v>
+      </c>
+      <c r="T4">
+        <v>0.0006524461917013895</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>1.250719333333333</v>
+      </c>
+      <c r="H5">
+        <v>3.752158</v>
+      </c>
+      <c r="I5">
+        <v>0.002865941360907832</v>
+      </c>
+      <c r="J5">
+        <v>0.002866373601474654</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2.431954666666666</v>
+      </c>
+      <c r="N5">
+        <v>7.295864</v>
+      </c>
+      <c r="O5">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="P5">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="Q5">
+        <v>3.041692719390222</v>
+      </c>
+      <c r="R5">
+        <v>27.375234474512</v>
+      </c>
+      <c r="S5">
+        <v>0.002213593556140922</v>
+      </c>
+      <c r="T5">
+        <v>0.002213927409773264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>262.0776013333333</v>
+      </c>
+      <c r="H6">
+        <v>786.232804</v>
+      </c>
+      <c r="I6">
+        <v>0.6005336428492992</v>
+      </c>
+      <c r="J6">
+        <v>0.6006242151847005</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.7166990000000001</v>
+      </c>
+      <c r="N6">
+        <v>2.150097</v>
+      </c>
+      <c r="O6">
+        <v>0.2276207788704612</v>
+      </c>
+      <c r="P6">
+        <v>0.2276207788704611</v>
+      </c>
+      <c r="Q6">
+        <v>187.8307547979987</v>
+      </c>
+      <c r="R6">
+        <v>1690.476793181988</v>
+      </c>
+      <c r="S6">
+        <v>0.1366939355232728</v>
+      </c>
+      <c r="T6">
+        <v>0.136714551668801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>262.0776013333333</v>
+      </c>
+      <c r="H7">
+        <v>786.232804</v>
+      </c>
+      <c r="I7">
+        <v>0.6005336428492992</v>
+      </c>
+      <c r="J7">
+        <v>0.6006242151847005</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.431954666666666</v>
+      </c>
+      <c r="N7">
+        <v>7.295864</v>
+      </c>
+      <c r="O7">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="P7">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="Q7">
+        <v>637.3608455914062</v>
+      </c>
+      <c r="R7">
+        <v>5736.247610322655</v>
+      </c>
+      <c r="S7">
+        <v>0.4638397073260264</v>
+      </c>
+      <c r="T7">
+        <v>0.4639096635158995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>171.1119283333333</v>
+      </c>
+      <c r="H8">
+        <v>513.335785</v>
+      </c>
+      <c r="I8">
+        <v>0.3920917664622839</v>
+      </c>
+      <c r="J8">
+        <v>0.3921509016454713</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.7166990000000001</v>
+      </c>
+      <c r="N8">
+        <v>2.150097</v>
+      </c>
+      <c r="O8">
+        <v>0.2276207788704612</v>
+      </c>
+      <c r="P8">
+        <v>0.2276207788704611</v>
+      </c>
+      <c r="Q8">
+        <v>122.6357479245717</v>
+      </c>
+      <c r="R8">
+        <v>1103.721731321145</v>
+      </c>
+      <c r="S8">
+        <v>0.08924823327084003</v>
+      </c>
+      <c r="T8">
+        <v>0.08926169366729579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>171.1119283333333</v>
+      </c>
+      <c r="H9">
+        <v>513.335785</v>
+      </c>
+      <c r="I9">
+        <v>0.3920917664622839</v>
+      </c>
+      <c r="J9">
+        <v>0.3921509016454713</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.431954666666666</v>
+      </c>
+      <c r="N9">
+        <v>7.295864</v>
+      </c>
+      <c r="O9">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="P9">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="Q9">
+        <v>416.1364526325822</v>
+      </c>
+      <c r="R9">
+        <v>3745.22807369324</v>
+      </c>
+      <c r="S9">
+        <v>0.3028435331914439</v>
+      </c>
+      <c r="T9">
+        <v>0.3028892079781755</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1.40264858233478</v>
-      </c>
-      <c r="H4">
-        <v>1.40264858233478</v>
-      </c>
-      <c r="I4">
-        <v>0.003911892032329803</v>
-      </c>
-      <c r="J4">
-        <v>0.003911892032329803</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>2.39324635966321</v>
-      </c>
-      <c r="N4">
-        <v>2.39324635966321</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>3.356883613559475</v>
-      </c>
-      <c r="R4">
-        <v>3.356883613559475</v>
-      </c>
-      <c r="S4">
-        <v>0.003911892032329803</v>
-      </c>
-      <c r="T4">
-        <v>0.003911892032329803</v>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.770183</v>
+      </c>
+      <c r="H10">
+        <v>5.310549</v>
+      </c>
+      <c r="I10">
+        <v>0.004056258299418022</v>
+      </c>
+      <c r="J10">
+        <v>0.004056870063290943</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.7166990000000001</v>
+      </c>
+      <c r="N10">
+        <v>2.150097</v>
+      </c>
+      <c r="O10">
+        <v>0.2276207788704612</v>
+      </c>
+      <c r="P10">
+        <v>0.2276207788704611</v>
+      </c>
+      <c r="Q10">
+        <v>1.268688385917</v>
+      </c>
+      <c r="R10">
+        <v>11.418195473253</v>
+      </c>
+      <c r="S10">
+        <v>0.0009232886734133024</v>
+      </c>
+      <c r="T10">
+        <v>0.0009234279235825415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.770183</v>
+      </c>
+      <c r="H11">
+        <v>5.310549</v>
+      </c>
+      <c r="I11">
+        <v>0.004056258299418022</v>
+      </c>
+      <c r="J11">
+        <v>0.004056870063290943</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.431954666666666</v>
+      </c>
+      <c r="N11">
+        <v>7.295864</v>
+      </c>
+      <c r="O11">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="P11">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="Q11">
+        <v>4.305004807704</v>
+      </c>
+      <c r="R11">
+        <v>38.745043269336</v>
+      </c>
+      <c r="S11">
+        <v>0.003132969626004719</v>
+      </c>
+      <c r="T11">
+        <v>0.003133442139708402</v>
       </c>
     </row>
   </sheetData>
